--- a/biology/Médecine/Albrecht_Kossel/Albrecht_Kossel.xlsx
+++ b/biology/Médecine/Albrecht_Kossel/Albrecht_Kossel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludwig Karl Martin Leonhard Albrecht Kossel, né le 16 septembre 1853 à Rostock, Grand-duché de Mecklembourg-Schwerin et mort le 5 juillet 1927 à Heidelberg, Allemagne, est un médecin allemand, lauréat du prix Nobel de physiologie ou médecine de 1910[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig Karl Martin Leonhard Albrecht Kossel, né le 16 septembre 1853 à Rostock, Grand-duché de Mecklembourg-Schwerin et mort le 5 juillet 1927 à Heidelberg, Allemagne, est un médecin allemand, lauréat du prix Nobel de physiologie ou médecine de 1910.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kossel est né à Rostock, fils du consul de Prusse Albrecht Kossel et de sa femme Clara. En 1872, Kossel rentre à l'université de Strasbourg pour étudier la médecine et suit des cours donnés par Anton de Bary, Waldeyer, Kundt, Baeyer et Felix Hoppe-Seyler. Il obtient son diplôme en 1878 à l'université de Rostock.
-En 1910, Kossel est lauréat du prix Nobel de physiologie ou médecine « en reconnaissance de ses contributions à notre connaissance de la chimie cellulaire grâce à ses travaux sur les protéines, y compris les substances nucléiques[1] ».
+En 1910, Kossel est lauréat du prix Nobel de physiologie ou médecine « en reconnaissance de ses contributions à notre connaissance de la chimie cellulaire grâce à ses travaux sur les protéines, y compris les substances nucléiques ».
 Les découvertes de Kossel sur les quatre bases nucléiques adénine, guanine, thymine et cytosine ont posé une base inébranlable pour la poursuite des recherches. Il a créé les conditions essentielles pour le célèbre modèle d'ADN à double hélice, qui a été développé en 1953 par James D. Watson et Francis Crick.
-" … his elucidation of the chemical nature of some building blocks that make up nucleic acids and chromatine has secured immortality for this exeedingly modest and almost shy man."[2]
+" … his elucidation of the chemical nature of some building blocks that make up nucleic acids and chromatine has secured immortality for this exeedingly modest and almost shy man."
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Untersuchungen über die Nukleine und ihre Spaltungsprodukte (« Recherches sur les nucléines et leurs produits de dissociation »), 1881.
 Die Gewebe des menschlichen Körpers und ihre mikroskopische Untersuchung (« Les tissus du corps humain et leur étude microscopique »), 1889-1891.
